--- a/Weekly-Reports/PELAB .xlsx
+++ b/Weekly-Reports/PELAB .xlsx
@@ -820,7 +820,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1730,13 +1730,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -1747,7 +1747,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1755,7 +1755,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="C3" s="18"/>
       <c r="D3" s="8" t="s">
@@ -1786,7 +1786,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="C4" s="18"/>
       <c r="D4" s="8" t="s">
@@ -1798,7 +1798,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="C5" s="18"/>
       <c r="D5" s="8" t="s">
@@ -1810,7 +1810,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="C6" s="7" t="s">
         <v>47</v>
@@ -1824,7 +1824,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="C7" s="18"/>
       <c r="D7" s="8" t="s">
@@ -1836,7 +1836,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="C8" s="18"/>
       <c r="D8" s="8" t="s">
@@ -1848,7 +1848,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="C9" s="18"/>
       <c r="D9" s="8" t="s">
@@ -1860,7 +1860,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>71</v>
@@ -1874,7 +1874,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="C11" s="18"/>
       <c r="D11" s="8" t="s">
@@ -1886,7 +1886,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="C12" s="18"/>
       <c r="D12" s="8" t="s">
@@ -1898,7 +1898,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="C13" s="18"/>
       <c r="D13" s="8" t="s">
@@ -1910,7 +1910,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="C14" s="7" t="s">
         <v>72</v>
@@ -1924,7 +1924,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="C15" s="18"/>
       <c r="D15" s="8" t="s">
@@ -1936,7 +1936,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="C16" s="18"/>
       <c r="D16" s="8" t="s">
@@ -1948,7 +1948,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="C17" s="18"/>
       <c r="D17" s="8" t="s">
@@ -1960,7 +1960,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="C18" s="7" t="s">
         <v>73</v>
@@ -1974,7 +1974,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="C19" s="18"/>
       <c r="D19" s="8" t="s">
@@ -1986,7 +1986,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="C20" s="18"/>
       <c r="D20" s="8" t="s">
@@ -1998,7 +1998,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="C21" s="18"/>
       <c r="D21" s="8" t="s">
@@ -2010,7 +2010,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="6" t="s">
         <v>34</v>
@@ -2027,7 +2027,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="C23" s="18"/>
       <c r="D23" s="8" t="s">
@@ -2039,7 +2039,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="C24" s="18"/>
       <c r="D24" s="8" t="s">
@@ -2051,7 +2051,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="C25" s="18"/>
       <c r="D25" s="8" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="C26" s="7" t="s">
         <v>47</v>
@@ -2077,7 +2077,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="C27" s="18"/>
       <c r="D27" s="8" t="s">
@@ -2089,7 +2089,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="C28" s="18"/>
       <c r="D28" s="8" t="s">
@@ -2101,7 +2101,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="C29" s="18"/>
       <c r="D29" s="8" t="s">
@@ -2113,7 +2113,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="C30" s="7" t="s">
         <v>72</v>
@@ -2127,7 +2127,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="C31" s="18"/>
       <c r="D31" s="8" t="s">
@@ -2139,7 +2139,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
@@ -2151,7 +2151,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="C33" s="18"/>
       <c r="D33" s="8" t="s">
@@ -2163,7 +2163,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="C34" s="7" t="s">
         <v>72</v>
@@ -2177,7 +2177,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="C35" s="18"/>
       <c r="D35" s="8" t="s">
@@ -2189,7 +2189,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="C36" s="18"/>
       <c r="D36" s="8" t="s">
@@ -2201,7 +2201,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="C37" s="18"/>
       <c r="D37" s="8" t="s">
@@ -2213,7 +2213,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="6" t="s">
         <v>73</v>
@@ -2228,7 +2228,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="C39" s="7" t="s">
         <v>66</v>
@@ -2240,7 +2240,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="C40" s="7" t="s">
         <v>67</v>
@@ -2252,7 +2252,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="C41" s="24" t="s">
         <v>68</v>
@@ -2264,7 +2264,7 @@
       <c r="F41" s="26"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B42" s="34" t="s">
         <v>85</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B43" s="34" t="s">
         <v>86</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B44" s="34" t="s">
         <v>87</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B45" s="34" t="s">
         <v>88</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="35"/>
       <c r="B46" s="34" t="s">
         <v>89</v>
@@ -2325,18 +2325,15 @@
       <c r="F46" s="5"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="7:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="7:7" ht="26.25" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="7:7" ht="26.25" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="7:7" ht="26.25" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
